--- a/data/hotels_by_city/Houston/Houston_shard_619.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_619.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d557082-Reviews-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-Baytown.h859503.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,342 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r543409558-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>557082</t>
+  </si>
+  <si>
+    <t>543409558</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Nice motel in good location, only problem was there were a...</t>
+  </si>
+  <si>
+    <t>Nice motel in good location, only problem was there were a bunch of people hanging out on the balcony making noise.  Like I said room and location good, but it was a holiday so people were being noisy and kept us up at night.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r536920436-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>536920436</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Would not recomend</t>
+  </si>
+  <si>
+    <t>It was late and booked the hotel as I could not find any otherHotel. For the price for one night it was bad . The place smelled and the sheets were had a funky smell.How can the owner not take pride in their establishment , do not get it .Just  not clean at all.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r508750978-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>508750978</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>IN THE RIGHT PLACE</t>
+  </si>
+  <si>
+    <t>tHEY DON'T GIVE EXTRA PILLOWSeven if you have a real need for them.  I have knee problems and need to prop my knees up to help me sleep</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r410706266-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>410706266</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r405283901-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>405283901</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r384677810-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>384677810</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Nice friendly service. Very clean room. Not much breakfast...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice friendly service. Very clean room. Not much breakfast. One of the loudest air conditioners I every had in a room.  </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r363403428-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>363403428</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>pet sanctuary</t>
+  </si>
+  <si>
+    <t>had to take a smoking room I assume because of the dog. not really strong smoke smell. Had trouble explaining to the on duty clerk/manager? that I was paying for 2 days because I had my dog with me and they don't allow pets in the exxon-mobile refinery. My directions were for nobody to go in the room while I was gone because I didn't want the dog to get loose. Luckily the maid understood the situation. Almost $200.00 dollars and I felt it was worth it. I am a long haul truck driver and will probably have to do this again at some point.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r358513393-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>358513393</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Nice home away from home</t>
+  </si>
+  <si>
+    <t>Great staff,very friendly, always ready to serve. Very clean,good value,and right off freeway,and Mobile bay,easy off and on.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r343790515-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>343790515</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Rude owner and leaking toilet.</t>
+  </si>
+  <si>
+    <t>Owner was very rude and mad that I was able to get a really low rate because I redeemed some of my Wyndham Points to receive the low rate. He put me in a room that had a leaking toilet. They just laid towels on the floor to absorb the water and by the end of the night the floor was completely flooded. Glad I was just on a short business trip and will definitely avoid this hotel on future business trips to the Baytown area.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r293935792-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>293935792</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I asked for the room rate hen I arrived and told them I was a Wyndom member, they gave me the the rate when I asked if thety had a senior rate they said that was the senior rate and re- quoted me a higher price. The rooms were nice but I feel if was cheated and wonder how many other people are being deceived I won't stay there again and won't let my employees start there either. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r279814617-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>279814617</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r273329263-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>273329263</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Super 8 stay</t>
+  </si>
+  <si>
+    <t>The room assigned to us was very clean, beds were comfortable, was actually surprised that it included microwave, coffee pot, and a regular sized fridge..VERY nice, very worth our over night stay...will definitely use Super 8 when traveling and recommend it to others</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r209350026-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>209350026</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r209300886-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>209300886</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r201999756-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>201999756</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>White Noise, decent value</t>
+  </si>
+  <si>
+    <t>The good: hubby &amp; I reserved a non-smoking king bed room + doggie, ended up pleasantly surprised by nice updated surfaces &amp; kitchenette and medium full fridge, love seat (maybe an upgrade?). It was dusty but we finally pulled the trigger on bringing vinegar windex along for this hotel stay, so a quick wipe down satisfied this germ-a-phobe. Other than slippers to walk around, the room was much nicer than expected. Much better value than a motel 6 for our family reunion trip. decent part of town w/box stores nearby &amp; good hwy access.  Added a 2nd night. The ick factor: There are some scrubby fellas chillin on our truck stop side, next-door neighbor in boxers (only) smoking was an unfortunate sight. Doubt I would stay here solo, but worked out alright w/hubby unloading car. Will try adding pics later. Not shabby, cozy bed with light pink sheets. Bring your own breakfast if you dislike pastries/oatmeal/yogurt.MoreShow less</t>
+  </si>
+  <si>
+    <t>The good: hubby &amp; I reserved a non-smoking king bed room + doggie, ended up pleasantly surprised by nice updated surfaces &amp; kitchenette and medium full fridge, love seat (maybe an upgrade?). It was dusty but we finally pulled the trigger on bringing vinegar windex along for this hotel stay, so a quick wipe down satisfied this germ-a-phobe. Other than slippers to walk around, the room was much nicer than expected. Much better value than a motel 6 for our family reunion trip. decent part of town w/box stores nearby &amp; good hwy access.  Added a 2nd night. The ick factor: There are some scrubby fellas chillin on our truck stop side, next-door neighbor in boxers (only) smoking was an unfortunate sight. Doubt I would stay here solo, but worked out alright w/hubby unloading car. Will try adding pics later. Not shabby, cozy bed with light pink sheets. Bring your own breakfast if you dislike pastries/oatmeal/yogurt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r182007520-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>182007520</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r177411748-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>177411748</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r157644347-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>157644347</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>very nice motel very friendly lady is the office she was very informative on getting a super 8 card the place good to have a little bit better truck parking the truck stop next door</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r119474017-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>119474017</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>VERY average</t>
+  </si>
+  <si>
+    <t>Don't expect more than stale muffins and bad coffee for the included "breakfast"</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r23386312-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>23386312</t>
+  </si>
+  <si>
+    <t>01/08/2009</t>
+  </si>
+  <si>
+    <t>Bites all over me</t>
+  </si>
+  <si>
+    <t>First thing is it shares a fence with a truck stop. Trucks are backed up to the fence and you hear them running and announcements over the PA all the time.I needed to take some medicene and went to the lobby asked if I could purchase some bottled water. I was told to go to the gas station and get it there.As I went to get in the bed the sheets did not look fresh but I got in against my better judgement. The toilet ran all night and kept me up.Went down for breakfast in the morning, the female day manager was sitting at a table going through paper work wearing no shoes. As I went to fix a cup of coffee I ws told there was no decaff coffee.Upon arriving home my arm started itching when I looked I saw little welps on my arm. I took my shirt off and discovered I was bitten all over my upper body. I took my boots off to find more bites. After stripping down completly I am bitten all over my body. It looks like the pictures of bed bug bites you see on the internet.Never again will I stay at a Hotel 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>First thing is it shares a fence with a truck stop. Trucks are backed up to the fence and you hear them running and announcements over the PA all the time.I needed to take some medicene and went to the lobby asked if I could purchase some bottled water. I was told to go to the gas station and get it there.As I went to get in the bed the sheets did not look fresh but I got in against my better judgement. The toilet ran all night and kept me up.Went down for breakfast in the morning, the female day manager was sitting at a table going through paper work wearing no shoes. As I went to fix a cup of coffee I ws told there was no decaff coffee.Upon arriving home my arm started itching when I looked I saw little welps on my arm. I took my shirt off and discovered I was bitten all over my upper body. I took my boots off to find more bites. After stripping down completly I am bitten all over my body. It looks like the pictures of bed bug bites you see on the internet.Never again will I stay at a Hotel 8.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +877,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +909,1363 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_619.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r589916811-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>557082</t>
+  </si>
+  <si>
+    <t>589916811</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here I was surprised by the amenities we got from the big fridge to the mini stove top n sink cabinets very spacious and okay on the cleanliness way better then all the other ones.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r540791047-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>540791047</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This place is very nice, newly re-modeled and up to date.  Room was very clean and very nicely decorated and spacious.  Also there's secured parking for 18-wheelers with cameras at truck level and overhead.  Office has a window monitoring all around the parking area and at the doors to every room.  Located across from the Loves truck stop and nearby TA and Flying J truck stops too.  Will definitely come here again.  They also have room rates for CDLs.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r543409558-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>557082</t>
-  </si>
-  <si>
     <t>543409558</t>
   </si>
   <si>
@@ -174,12 +216,6 @@
     <t>Nice motel in good location, only problem was there were a bunch of people hanging out on the balcony making noise.  Like I said room and location good, but it was a holiday so people were being noisy and kept us up at night.</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r536920436-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -219,6 +255,36 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r483160627-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>483160627</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r472648788-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>472648788</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed t this motel for several days while waiting on a vehicle repair. I found the staff to be very professional,friendly and knowledgeable. My room was cleaned daily,there standards were high. I would stay there again and would recommend them to my friends and associates</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r410706266-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -231,9 +297,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r405283901-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -264,6 +327,42 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r382810968-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>382810968</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot rod power tour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small and old hotel. Seemed to be  recently updated nice rooms. Clean rooms. Near the interstate. Restaurants very close by. A lot of the group stayed there. Would stay there again.  An okay place little bit pricey. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r372249630-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>372249630</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Dump....</t>
+  </si>
+  <si>
+    <t>Pulled in at Midnight after being on the road to 18 hours.....couldn't find this dump on trip advisor....should have known what I was in for when I pulled up and half the lights were not working...then walk in and don't see the signature waffle machine.Paid 81 buck for a 25 room. Ask for non smoking and got a room that smelled flooded...puked in...pissed on....and only God knows what the rest of the smell is. TV picture sucks...beds suck...water pressure sucks...decor sucks...I'm a gold card rewards member and I'll put this in the bottom 3 of the worst Super 8s in the world.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r363403428-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -300,9 +399,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r343790515-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -321,6 +417,39 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r337890728-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>337890728</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Rude Management, Poor Customer Service, Dirty Room</t>
+  </si>
+  <si>
+    <t>I stayed at the Super 8 – Baytown/Mont Belvieu, TX under less than ideal circumstances.  While traveling cross country, I experienced (along with 6 other vehicles) two flat tires due to road hazard on Interstate 10.  Because it was New Years Eve, no garage was open, and I needed to find a place to settle in for the night for my family and damaged Toyota Tacoma.  We selected the Super 8 because it was closest to the accident site and described as pet friendly on the website.  When I arrived, however, I was promptly and rudely told that I was not welcome, and that I would need to find another place to stay.  The hotel had plenty of vacancy, so I can only assume that Mr. and Mrs. Patel (managers on duty) had an aversion to a vehicle with flats parked on site.  After explaining that I had no place to go and no mechanism to get there, Mr. Patel checked me in on the condition that I park off-site and that he up-charge me for my 6 month old puppy.  He directed me to an adjacent parking lot, which he confirmed was not Super 8 property, and I coordinated the drop-off with the tow driver.  Upon returning to retrieve my room key, Mr. Patel proceeded to yell at me about the location and orientation of my Tacoma in the adjacent lot, which was otherwise empty.  Since it wasn’t even...I stayed at the Super 8 – Baytown/Mont Belvieu, TX under less than ideal circumstances.  While traveling cross country, I experienced (along with 6 other vehicles) two flat tires due to road hazard on Interstate 10.  Because it was New Years Eve, no garage was open, and I needed to find a place to settle in for the night for my family and damaged Toyota Tacoma.  We selected the Super 8 because it was closest to the accident site and described as pet friendly on the website.  When I arrived, however, I was promptly and rudely told that I was not welcome, and that I would need to find another place to stay.  The hotel had plenty of vacancy, so I can only assume that Mr. and Mrs. Patel (managers on duty) had an aversion to a vehicle with flats parked on site.  After explaining that I had no place to go and no mechanism to get there, Mr. Patel checked me in on the condition that I park off-site and that he up-charge me for my 6 month old puppy.  He directed me to an adjacent parking lot, which he confirmed was not Super 8 property, and I coordinated the drop-off with the tow driver.  Upon returning to retrieve my room key, Mr. Patel proceeded to yell at me about the location and orientation of my Tacoma in the adjacent lot, which was otherwise empty.  Since it wasn’t even Super 8 property, I didn’t understand his discomfort or authority on the issue, but did my best to explain that the tow driver would return first thing in the morning to bring it to a local garage.  After continued protest, Mr. Patel reluctantly handed me a key, and we were given a poorly maintained room littered with cigarette butts, grime in the bathroom, and odors unfit for a hotel.  The doorknob wasn’t even secured to the door, but at least we were out of the elements.  To make the customer experience worse, my wife had to plead at length the next morning for a late check-out without extra charges.  She simply needed 45 extra minutes while I paid for the installation of new tires at a local garage.  Put simply: I would not stay at this Super 8 again, and I would recommend that other potential guests avoid it at all costs.  It is poorly maintained and operated by a rude manager who, from this experience, lacked empathy and did nothing to welcome my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I stayed at the Super 8 – Baytown/Mont Belvieu, TX under less than ideal circumstances.  While traveling cross country, I experienced (along with 6 other vehicles) two flat tires due to road hazard on Interstate 10.  Because it was New Years Eve, no garage was open, and I needed to find a place to settle in for the night for my family and damaged Toyota Tacoma.  We selected the Super 8 because it was closest to the accident site and described as pet friendly on the website.  When I arrived, however, I was promptly and rudely told that I was not welcome, and that I would need to find another place to stay.  The hotel had plenty of vacancy, so I can only assume that Mr. and Mrs. Patel (managers on duty) had an aversion to a vehicle with flats parked on site.  After explaining that I had no place to go and no mechanism to get there, Mr. Patel checked me in on the condition that I park off-site and that he up-charge me for my 6 month old puppy.  He directed me to an adjacent parking lot, which he confirmed was not Super 8 property, and I coordinated the drop-off with the tow driver.  Upon returning to retrieve my room key, Mr. Patel proceeded to yell at me about the location and orientation of my Tacoma in the adjacent lot, which was otherwise empty.  Since it wasn’t even...I stayed at the Super 8 – Baytown/Mont Belvieu, TX under less than ideal circumstances.  While traveling cross country, I experienced (along with 6 other vehicles) two flat tires due to road hazard on Interstate 10.  Because it was New Years Eve, no garage was open, and I needed to find a place to settle in for the night for my family and damaged Toyota Tacoma.  We selected the Super 8 because it was closest to the accident site and described as pet friendly on the website.  When I arrived, however, I was promptly and rudely told that I was not welcome, and that I would need to find another place to stay.  The hotel had plenty of vacancy, so I can only assume that Mr. and Mrs. Patel (managers on duty) had an aversion to a vehicle with flats parked on site.  After explaining that I had no place to go and no mechanism to get there, Mr. Patel checked me in on the condition that I park off-site and that he up-charge me for my 6 month old puppy.  He directed me to an adjacent parking lot, which he confirmed was not Super 8 property, and I coordinated the drop-off with the tow driver.  Upon returning to retrieve my room key, Mr. Patel proceeded to yell at me about the location and orientation of my Tacoma in the adjacent lot, which was otherwise empty.  Since it wasn’t even Super 8 property, I didn’t understand his discomfort or authority on the issue, but did my best to explain that the tow driver would return first thing in the morning to bring it to a local garage.  After continued protest, Mr. Patel reluctantly handed me a key, and we were given a poorly maintained room littered with cigarette butts, grime in the bathroom, and odors unfit for a hotel.  The doorknob wasn’t even secured to the door, but at least we were out of the elements.  To make the customer experience worse, my wife had to plead at length the next morning for a late check-out without extra charges.  She simply needed 45 extra minutes while I paid for the installation of new tires at a local garage.  Put simply: I would not stay at this Super 8 again, and I would recommend that other potential guests avoid it at all costs.  It is poorly maintained and operated by a rude manager who, from this experience, lacked empathy and did nothing to welcome my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r314131137-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>314131137</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r293935792-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -369,6 +498,30 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r259813633-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>259813633</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r244438481-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>244438481</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r209350026-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -408,6 +561,30 @@
     <t>The good: hubby &amp; I reserved a non-smoking king bed room + doggie, ended up pleasantly surprised by nice updated surfaces &amp; kitchenette and medium full fridge, love seat (maybe an upgrade?). It was dusty but we finally pulled the trigger on bringing vinegar windex along for this hotel stay, so a quick wipe down satisfied this germ-a-phobe. Other than slippers to walk around, the room was much nicer than expected. Much better value than a motel 6 for our family reunion trip. decent part of town w/box stores nearby &amp; good hwy access.  Added a 2nd night. The ick factor: There are some scrubby fellas chillin on our truck stop side, next-door neighbor in boxers (only) smoking was an unfortunate sight. Doubt I would stay here solo, but worked out alright w/hubby unloading car. Will try adding pics later. Not shabby, cozy bed with light pink sheets. Bring your own breakfast if you dislike pastries/oatmeal/yogurt.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r199313208-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>199313208</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r196372396-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>196372396</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r182007520-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
   </si>
   <si>
@@ -448,6 +625,36 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r145379740-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>145379740</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r130794465-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>130794465</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>does not give a drivers rate like they say</t>
+  </si>
+  <si>
+    <t>They are disonest in advertising driver discounts, $70.00+ for a monday.It is somewhat clean,but at the most it's average,not worth the 70.00+</t>
+  </si>
+  <si>
+    <t>May 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d557082-r119474017-Super_8_by_Wyndham_Baytown_Mont_Belvieu-Baytown_Texas.html</t>
@@ -1018,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1030,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>4</v>
@@ -1040,7 +1247,7 @@
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1085,30 +1292,20 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1131,7 +1328,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1140,25 +1337,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1167,14 +1364,14 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1182,7 +1379,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1198,7 +1395,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1207,44 +1404,50 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1273,39 +1476,45 @@
       <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1320,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1329,28 +1538,24 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
@@ -1359,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1370,9 +1575,7 @@
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s">
-        <v>80</v>
-      </c>
+      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1387,7 +1590,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1396,35 +1599,29 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
         <v>5</v>
       </c>
@@ -1438,7 +1635,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1651,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1463,50 +1660,44 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s">
         <v>91</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>92</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1521,7 +1712,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1530,50 +1721,44 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>99</v>
-      </c>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1588,7 +1773,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1597,37 +1782,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1639,7 +1824,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -1655,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1664,44 +1849,40 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
         <v>108</v>
       </c>
-      <c r="J12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1716,7 +1897,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1725,49 +1906,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
         <v>112</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>113</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>114</v>
       </c>
-      <c r="L13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>116</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1783,7 +1954,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1792,33 +1963,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
         <v>118</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>119</v>
       </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
         <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -1829,7 +2004,9 @@
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1856,18 +2033,22 @@
         <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1890,7 +2071,9 @@
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
+      <c r="Y15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1905,7 +2088,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1914,41 +2097,41 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1956,7 +2139,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1972,7 +2155,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1981,44 +2164,44 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2033,7 +2216,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2042,33 +2225,33 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2094,7 +2277,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2103,41 +2286,41 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2145,7 +2328,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
@@ -2161,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2170,46 +2353,44 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" t="s">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
       <c r="M20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>148</v>
-      </c>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2224,7 +2405,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2233,39 +2414,919 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>206</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>212</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42426</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" t="s">
+        <v>222</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>223</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
